--- a/Framework/src/test/resources/RestuarantData.xlsx
+++ b/Framework/src/test/resources/RestuarantData.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100800_{5052FC78-FDC6-4BA9-8299-0F3E9554E637}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="6192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Product Type</t>
   </si>
@@ -38,9 +35,6 @@
     <t>Product Name</t>
   </si>
   <si>
-    <t>Standard</t>
-  </si>
-  <si>
     <t>Product Category</t>
   </si>
   <si>
@@ -108,12 +102,18 @@
   </si>
   <si>
     <t>product code</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>1212</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,12 +151,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,11 +437,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,145 +454,145 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>1212</v>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2">
         <v>1234</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>25</v>
+      <c r="A19" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2">
         <v>1234</v>
       </c>
     </row>

--- a/Framework/src/test/resources/RestuarantData.xlsx
+++ b/Framework/src/test/resources/RestuarantData.xlsx
@@ -1,17 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100800_{5052FC78-FDC6-4BA9-8299-0F3E9554E637}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\obsquareSeliniumRepo\Framework\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="6192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="6192" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
+    <sheet name="Store" sheetId="2" r:id="rId2"/>
+    <sheet name="PeopleWaiter" sheetId="3" r:id="rId3"/>
+    <sheet name="PeopleCustomer" sheetId="4" r:id="rId4"/>
+    <sheet name="PeopleSupplier" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="91">
   <si>
     <t>Product Type</t>
   </si>
@@ -108,13 +115,199 @@
   </si>
   <si>
     <t>1212</t>
+  </si>
+  <si>
+    <t>Store Name</t>
+  </si>
+  <si>
+    <t>Alfy</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>Store Phone</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Veitnam</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Custome Footer for the receipt</t>
+  </si>
+  <si>
+    <t>Made in India</t>
+  </si>
+  <si>
+    <t>Store Edit Operation</t>
+  </si>
+  <si>
+    <t>xyz@gmail.com</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>7894561237</t>
+  </si>
+  <si>
+    <t>ooty</t>
+  </si>
+  <si>
+    <t>Store Delete operation</t>
+  </si>
+  <si>
+    <t>WaiterName</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Waiter Edit Operation</t>
+  </si>
+  <si>
+    <t>Waiter Name</t>
+  </si>
+  <si>
+    <t>WaiterDelete Operation</t>
+  </si>
+  <si>
+    <t>pqr@gmail.com</t>
+  </si>
+  <si>
+    <t>Ramesh</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>store2</t>
+  </si>
+  <si>
+    <t>1234567894</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Customer Edit Operation</t>
+  </si>
+  <si>
+    <t>Customer Delete Operation</t>
+  </si>
+  <si>
+    <t>Ashish</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Arush</t>
+  </si>
+  <si>
+    <t>Supplier Name</t>
+  </si>
+  <si>
+    <t>Supplier Edit Operation</t>
+  </si>
+  <si>
+    <t>Supplier Delete Operation</t>
+  </si>
+  <si>
+    <t>Anjali</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>234567</t>
+  </si>
+  <si>
+    <t>AANNA</t>
+  </si>
+  <si>
+    <t>Maggi</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Validate store add attributes</t>
+  </si>
+  <si>
+    <t>abc@gm@il.com</t>
+  </si>
+  <si>
+    <t>123456789445789</t>
+  </si>
+  <si>
+    <t>Validate add waiter fields</t>
+  </si>
+  <si>
+    <t>a@c$@gmail.com</t>
+  </si>
+  <si>
+    <t>7845</t>
+  </si>
+  <si>
+    <t>Customer valiadate customer add fields</t>
+  </si>
+  <si>
+    <t>12341234578902</t>
+  </si>
+  <si>
+    <t>##abc@gmail.com</t>
+  </si>
+  <si>
+    <t>Customer valiadate supplier add fields</t>
+  </si>
+  <si>
+    <t>12345678904567</t>
+  </si>
+  <si>
+    <t>##@abc@gmail.com</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +319,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,18 +349,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -437,20 +642,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="28.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="1" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,23 +664,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -482,7 +694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -490,7 +702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -498,15 +710,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -514,15 +732,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -530,15 +751,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -546,12 +770,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -559,7 +783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -600,4 +824,600 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7418529637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="B22" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="23.6640625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B15" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1234578902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId2"/>
+    <hyperlink ref="B17" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B15" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Framework/src/test/resources/RestuarantData.xlsx
+++ b/Framework/src/test/resources/RestuarantData.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\obsquareSeliniumRepo\Framework\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100800_{09DA10CF-3CEA-4FA4-BD4A-B8584AE70F33}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="6192" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11148" windowHeight="6192" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -17,8 +13,10 @@
     <sheet name="PeopleWaiter" sheetId="3" r:id="rId3"/>
     <sheet name="PeopleCustomer" sheetId="4" r:id="rId4"/>
     <sheet name="PeopleSupplier" sheetId="5" r:id="rId5"/>
+    <sheet name="ExpenseData" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:G19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="110">
   <si>
     <t>Product Type</t>
   </si>
@@ -301,12 +299,69 @@
   </si>
   <si>
     <t>hello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date </t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Add Expense</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>Pasta</t>
+  </si>
+  <si>
+    <t>store 3</t>
+  </si>
+  <si>
+    <t>2023-04-12</t>
+  </si>
+  <si>
+    <t>litre</t>
+  </si>
+  <si>
+    <t>juices</t>
+  </si>
+  <si>
+    <t>store 2</t>
+  </si>
+  <si>
+    <t>Validate add expense field</t>
+  </si>
+  <si>
+    <t>Expense Edit Operation</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>cutlet</t>
+  </si>
+  <si>
+    <t>DD New</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -642,7 +697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -827,10 +882,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -993,9 +1048,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B11" r:id="rId2"/>
-    <hyperlink ref="B22" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B22" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -1003,7 +1058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1136,16 +1191,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B15" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B15" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1279,19 +1334,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B9" r:id="rId2"/>
-    <hyperlink ref="B17" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B17" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1414,10 +1469,173 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B8" r:id="rId2"/>
-    <hyperlink ref="B15" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B15" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CDC7DF-00BC-426F-B923-B7FDB0495E27}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Framework/src/test/resources/RestuarantData.xlsx
+++ b/Framework/src/test/resources/RestuarantData.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100800_{09DA10CF-3CEA-4FA4-BD4A-B8584AE70F33}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\obsquareSeliniumRepo\Framework\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11148" windowHeight="6192" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22464" windowHeight="8964" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -16,7 +20,6 @@
     <sheet name="ExpenseData" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="111">
   <si>
     <t>Product Type</t>
   </si>
@@ -325,9 +328,6 @@
     <t>Pasta</t>
   </si>
   <si>
-    <t>store 3</t>
-  </si>
-  <si>
     <t>2023-04-12</t>
   </si>
   <si>
@@ -355,13 +355,19 @@
     <t>cutlet</t>
   </si>
   <si>
-    <t>DD New</t>
+    <t>Expense Delete Operation</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>MNC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -697,7 +703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -882,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1048,9 +1054,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B22" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="B22" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -1058,7 +1064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1191,16 +1197,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="B15" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B15" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1334,20 +1340,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="B17" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId2"/>
+    <hyperlink ref="B17" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1469,20 +1475,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="B15" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B15" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CDC7DF-00BC-426F-B923-B7FDB0495E27}">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1525,7 +1531,7 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1541,7 +1547,7 @@
         <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1549,7 +1555,7 @@
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1557,7 +1563,7 @@
         <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1565,7 +1571,7 @@
         <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1578,7 +1584,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1586,15 +1592,15 @@
         <v>91</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1607,7 +1613,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1615,7 +1621,7 @@
         <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1623,7 +1629,7 @@
         <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1631,7 +1637,28 @@
         <v>94</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
